--- a/data/database/raw/fmp_short_key.xlsx
+++ b/data/database/raw/fmp_short_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/database/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CFFD59-0C3D-4D47-ACD3-908AAEE3738A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74159D63-50E2-1B40-B25C-5385EFE12262}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="2700" windowWidth="35140" windowHeight="21000" xr2:uid="{81561D9F-93D2-4F4A-95FB-64B438A6EB45}"/>
+    <workbookView xWindow="2220" yWindow="2660" windowWidth="35140" windowHeight="21000" xr2:uid="{81561D9F-93D2-4F4A-95FB-64B438A6EB45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
   <si>
     <t>council_lead</t>
   </si>
@@ -240,12 +240,6 @@
     <t>Snapper-Grouper</t>
   </si>
   <si>
-    <t>Reef Feish</t>
-  </si>
-  <si>
-    <t>Salmon</t>
-  </si>
-  <si>
     <t>GOA Groundfish</t>
   </si>
   <si>
@@ -258,9 +252,6 @@
     <t>Groundfish</t>
   </si>
   <si>
-    <t>Scallops</t>
-  </si>
-  <si>
     <t>BSAI/GOA Groundfish</t>
   </si>
   <si>
@@ -300,16 +291,34 @@
     <t>Pacific Salmon</t>
   </si>
   <si>
-    <t>Guf Shrimp</t>
-  </si>
-  <si>
-    <t>Arctic Fish</t>
-  </si>
-  <si>
     <t>fmp_long</t>
   </si>
   <si>
     <t>Northeast Small-Mesh (Whiting)</t>
+  </si>
+  <si>
+    <t>Reef Fish</t>
+  </si>
+  <si>
+    <t>Summer Flounder, Scup, and Black Sea Bass</t>
+  </si>
+  <si>
+    <t>Mackerel, Squid, and Butterfish</t>
+  </si>
+  <si>
+    <t>Gulf Shrimp</t>
+  </si>
+  <si>
+    <t>Alaska Salmon</t>
+  </si>
+  <si>
+    <t>Alaska Scallops</t>
+  </si>
+  <si>
+    <t>Arctic Fish Resources</t>
+  </si>
+  <si>
+    <t>Snapper-Grouper / Reef Fish</t>
   </si>
 </sst>
 </file>
@@ -756,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C76EA61-1AAC-114F-BB4B-C364736012BB}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -773,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>62</v>
@@ -875,7 +884,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16">
@@ -897,7 +906,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16">
@@ -908,7 +917,7 @@
         <v>54</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16">
@@ -919,7 +928,7 @@
         <v>55</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16">
@@ -952,7 +961,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16">
@@ -974,7 +983,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16">
@@ -1073,7 +1082,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16">
@@ -1084,7 +1093,7 @@
         <v>39</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16">
@@ -1095,7 +1104,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="32">
@@ -1106,7 +1115,7 @@
         <v>40</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16">
@@ -1117,7 +1126,7 @@
         <v>38</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16">
@@ -1128,7 +1137,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16">
@@ -1139,7 +1148,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16">
@@ -1150,7 +1159,7 @@
         <v>36</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="32">
@@ -1183,7 +1192,7 @@
         <v>44</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16">
@@ -1194,7 +1203,7 @@
         <v>45</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16">
@@ -1227,7 +1236,7 @@
         <v>51</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16">
@@ -1238,7 +1247,7 @@
         <v>52</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16">
@@ -1249,7 +1258,7 @@
         <v>53</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16">
@@ -1260,7 +1269,7 @@
         <v>50</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="32">
@@ -1271,7 +1280,7 @@
         <v>16</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16">
@@ -1293,7 +1302,7 @@
         <v>59</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16">
@@ -1304,7 +1313,7 @@
         <v>57</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16">
@@ -1315,7 +1324,7 @@
         <v>60</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16">
@@ -1326,7 +1335,7 @@
         <v>58</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16">
@@ -1337,7 +1346,7 @@
         <v>61</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:3">
